--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal.xlsx
@@ -60,10 +60,10 @@
     <t>sw_Inverter_C_to_675_C</t>
   </si>
   <si>
-    <t>Flexgrid PV scale</t>
-  </si>
-  <si>
-    <t>Loadrack scale</t>
+    <t>scale_flexgrid PV</t>
+  </si>
+  <si>
+    <t>scale_loadrack</t>
   </si>
   <si>
     <t>Loadrack_P_A</t>
@@ -175,7 +175,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,7 +184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -212,6 +212,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -223,35 +229,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -268,33 +274,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -302,14 +308,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -326,29 +332,17 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
@@ -356,13 +350,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -371,37 +362,52 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -421,6 +427,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffd9ead3"/>
       <rgbColor rgb="ffb6d7a8"/>
@@ -564,13 +571,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -669,10 +670,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -927,13 +928,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1246,10 +1241,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_13NF_unbal.xlsx
@@ -1728,16 +1728,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="14">
-        <v>2273</v>
+        <v>7500</v>
       </c>
       <c r="D11" s="14">
-        <v>2273</v>
+        <v>7500</v>
       </c>
       <c r="E11" s="14">
-        <v>2273</v>
+        <v>7500</v>
       </c>
       <c r="F11" s="14">
-        <v>2273</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
